--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3670165.495953021</v>
+        <v>3667913.416241813</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>183.1642512458429</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826029</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>94.1793357460773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,13 +871,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>27.00971856836508</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917103</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>119.9714617240067</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292592</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991771</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727864</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>370.0648965483583</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.47168301525341</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206821</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>146.1850499531015</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695742</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>244.6418937426536</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603484</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>101.6969570046971</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>21.63824106824953</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4437,16 +4437,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.51949026613</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>477.4688890257555</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>308.5327060978486</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>161.6427585999383</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1396.729047233923</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1396.729047233923</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1396.729047233923</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>659.1173538559952</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.278283189675</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C5" t="n">
-        <v>1682.315766249264</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D5" t="n">
-        <v>1324.050067642513</v>
+        <v>654.0504646744068</v>
       </c>
       <c r="E5" t="n">
-        <v>938.2618150442688</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>527.2759102546613</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,25 +4565,25 @@
         <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.58875505237</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450755</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189675</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189675</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218345</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4811,13 +4811,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4847,7 +4847,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>985.2668805437596</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>816.3306976158527</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>666.214058203517</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>518.3009646211239</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>371.4110171232135</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>203.7081804979324</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1615.697475415547</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1615.697475415547</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1387.707924517529</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1166.915345373999</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,19 +5419,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,22 +5744,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5768,10 +5768,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.8158034133954</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
         <v>407.9027098310023</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>958.2568473871653</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>737.4642682436352</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>552.3777707160739</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474262</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>113.9333885650331</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>954.8188146898437</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>734.0262355463136</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>71.22040037418677</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.18682368252064</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>41.54258064659058</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624261</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>65.54986409393075</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6085800303783</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>657306.2150872388</v>
+        <v>657306.2150872389</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>657306.2150872389</v>
+        <v>657306.2150872388</v>
       </c>
     </row>
     <row r="16">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="H2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="J2" t="n">
         <v>766789.2697055059</v>
@@ -26344,16 +26344,16 @@
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>8.41514078729233e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>1.755561243044213e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
         <v>91573.95495316933</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181815</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181815</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181808</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="L4" t="n">
         <v>12386.92018181813</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12386.92018181814</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181815</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748262.9598710862</v>
+        <v>-748262.9598710864</v>
       </c>
       <c r="C6" t="n">
-        <v>580481.7858565056</v>
+        <v>580481.7858565061</v>
       </c>
       <c r="D6" t="n">
-        <v>580481.7858565066</v>
+        <v>580481.7858565063</v>
       </c>
       <c r="E6" t="n">
-        <v>327867.3578924256</v>
+        <v>327832.6199669903</v>
       </c>
       <c r="F6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.0817743447</v>
       </c>
       <c r="G6" t="n">
-        <v>653279.8196997809</v>
+        <v>653245.081774345</v>
       </c>
       <c r="H6" t="n">
-        <v>653279.8196997809</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="I6" t="n">
-        <v>653279.8196997807</v>
+        <v>653245.081774345</v>
       </c>
       <c r="J6" t="n">
-        <v>435748.6173025033</v>
+        <v>435713.8793770674</v>
       </c>
       <c r="K6" t="n">
-        <v>653279.8196997803</v>
+        <v>653245.0817743449</v>
       </c>
       <c r="L6" t="n">
-        <v>653279.8196997807</v>
+        <v>653245.0817743451</v>
       </c>
       <c r="M6" t="n">
-        <v>568224.7917642689</v>
+        <v>568190.0538388335</v>
       </c>
       <c r="N6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.081774345</v>
       </c>
       <c r="O6" t="n">
-        <v>653279.8196997809</v>
+        <v>653245.0817743448</v>
       </c>
       <c r="P6" t="n">
-        <v>653279.8196997808</v>
+        <v>653245.081774345</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022931</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>186.5668494326261</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734507</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>71.84647251295092</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>259.2021196372478</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805515</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>290.9502639294467</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356952</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548161</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.86547352390352</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>105.2833318990674</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28327,10 +28327,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731359</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588056</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
